--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:00:01+00:00</t>
+    <t>2021-11-26T15:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:49:28+00:00</t>
+    <t>2021-12-02T15:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:33:35+00:00</t>
+    <t>2021-12-02T15:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:37:14+00:00</t>
+    <t>2021-12-07T06:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T06:08:43+00:00</t>
+    <t>2021-12-07T14:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T14:13:42+00:00</t>
+    <t>2021-12-16T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Profile for address data in Austria.</t>
+    <t>HL7® Austria FHIR® Core Profile for address data in Austria. Note, this extension represents the common structure of address information within Austrian information systems. This extension does not restrict the documented information to Austrian adresses. Address information that does not fit into the given structure may be captured by [Address Additional Information](StructureDefinition-at-core-ext-address-additionalInformation.html).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:25:08+00:00</t>
+    <t>2021-12-16T13:27:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:27:06+00:00</t>
+    <t>2021-12-16T13:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:40:06+00:00</t>
+    <t>2021-12-16T13:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:42:07+00:00</t>
+    <t>2021-12-16T13:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:44:47+00:00</t>
+    <t>2021-12-16T13:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:46:43+00:00</t>
+    <t>2021-12-16T13:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:52:34+00:00</t>
+    <t>2021-12-16T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:56:13+00:00</t>
+    <t>2021-12-16T14:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:00:07+00:00</t>
+    <t>2021-12-16T14:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:06:02+00:00</t>
+    <t>2021-12-16T14:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:10:18+00:00</t>
+    <t>2021-12-16T14:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:12:05+00:00</t>
+    <t>2021-12-16T14:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:13:37+00:00</t>
+    <t>2021-12-16T14:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:16:27+00:00</t>
+    <t>2021-12-16T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:22:32+00:00</t>
+    <t>2021-12-16T14:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:50:40+00:00</t>
+    <t>2021-12-16T17:43:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:43:51+00:00</t>
+    <t>2021-12-16T18:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:14:01+00:00</t>
+    <t>2021-12-16T18:18:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:18:02+00:00</t>
+    <t>2022-01-27T17:29:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:29:14+00:00</t>
+    <t>2022-04-12T14:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T14:20:55+00:00</t>
+    <t>2022-04-12T15:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="220">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T15:07:33+00:00</t>
+    <t>2022-11-16T17:52:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,10 +254,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-at-addr-1:If the extension for street name is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetName').empty() or $this.hasValue())}at-addr-2:If the extension for street number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').empty() or $this.hasValue())}at-addr-3:If the extension for floor/door number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-additionalLocator').empty() or $this.hasValue())}</t>
   </si>
   <si>
     <t>XAD</t>
@@ -1000,42 +996,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.86328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="39.66015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="39.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="34.2578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="27.0546875" customWidth="true" bestFit="true"/>
@@ -1256,13 +1252,13 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>27</v>
@@ -1273,7 +1269,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1284,25 +1280,25 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1353,25 +1349,25 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>73</v>
@@ -1382,11 +1378,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1405,16 +1401,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1452,19 +1448,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1476,13 +1472,13 @@
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>73</v>
@@ -1493,7 +1489,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1504,31 +1500,31 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J5" t="s" s="2">
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" t="s" s="2">
         <v>73</v>
@@ -1541,64 +1537,64 @@
         <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="T5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s" s="2">
+      <c r="X5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X5" t="s" s="2">
+      <c r="Y5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI5" t="s" s="2">
+      <c r="AJ5" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AJ5" t="s" s="2">
+      <c r="AK5" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>73</v>
@@ -1606,7 +1602,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1617,7 +1613,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1626,19 +1622,19 @@
         <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="K6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1652,72 +1648,72 @@
         <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="T6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
+      <c r="AK6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1728,31 +1724,31 @@
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>73</v>
@@ -1765,72 +1761,72 @@
         <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="T7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
+      <c r="AK7" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AK7" t="s" s="2">
+      <c r="AL7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1850,16 +1846,16 @@
         <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1874,7 +1870,7 @@
         <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>73</v>
@@ -1910,7 +1906,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1922,24 +1918,24 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AK8" t="s" s="2">
+      <c r="AL8" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL8" t="s" s="2">
+      <c r="AM8" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1950,25 +1946,25 @@
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2019,13 +2015,13 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -2048,7 +2044,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2071,13 +2067,13 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2116,17 +2112,17 @@
         <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2138,7 +2134,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2155,10 +2151,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
@@ -2168,7 +2164,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2180,13 +2176,13 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2237,7 +2233,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2249,13 +2245,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2266,10 +2262,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>73</v>
@@ -2279,7 +2275,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2291,13 +2287,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2348,7 +2344,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2360,13 +2356,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -2377,10 +2373,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>73</v>
@@ -2390,7 +2386,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2402,13 +2398,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2459,7 +2455,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2471,13 +2467,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2488,10 +2484,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>73</v>
@@ -2501,7 +2497,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2513,13 +2509,13 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2570,7 +2566,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2582,7 +2578,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -2599,7 +2595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2610,25 +2606,25 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2652,40 +2648,40 @@
         <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="W15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2708,36 +2704,36 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2752,76 +2748,76 @@
         <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2837,19 +2833,19 @@
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2863,61 +2859,61 @@
         <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
@@ -2928,36 +2924,36 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3008,65 +3004,65 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3081,72 +3077,72 @@
         <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3157,28 +3153,28 @@
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3228,36 +3224,36 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3277,20 +3273,20 @@
         <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3303,64 +3299,64 @@
         <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>73</v>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="226">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T17:52:05+00:00</t>
+    <t>2023-01-20T07:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,6 +117,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -241,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
@@ -464,6 +471,9 @@
     <t>An Extension</t>
   </si>
   <si>
+    <t>Address.line.extension:street</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {iso21090-ADXP-streetName}
 </t>
   </si>
@@ -477,6 +487,9 @@
     <t>ADXP[partType=STR]</t>
   </si>
   <si>
+    <t>Address.line.extension:streetNumber</t>
+  </si>
+  <si>
     <t>streetNumber</t>
   </si>
   <si>
@@ -493,6 +506,9 @@
     <t>ADXP[partType=BNR]</t>
   </si>
   <si>
+    <t>Address.line.extension:floorDoorNumber</t>
+  </si>
+  <si>
     <t>floorDoorNumber</t>
   </si>
   <si>
@@ -504,6 +520,9 @@
   </si>
   <si>
     <t>ADXP[partType=ADL]</t>
+  </si>
+  <si>
+    <t>Address.line.extension:additionalInformation</t>
   </si>
   <si>
     <t>additionalInformation</t>
@@ -987,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -996,45 +1015,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.79296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="59.8515625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="39.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="34.2578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="27.0546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.2578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="27.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1155,2211 +1174,2274 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>73</v>
+      <c r="AN2" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AM6" t="s" s="2">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T07:23:49+00:00</t>
+    <t>2023-02-16T15:18:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:18:08+00:00</t>
+    <t>2023-03-06T16:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="227">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T12:50:36+00:00</t>
+    <t>2023-12-04T20:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,13 +256,17 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+at-addr-1:If the extension for street name is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetName').empty() or $this.hasValue())}at-addr-2:If the extension for street number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').empty() or $this.hasValue())}at-addr-3:If the extension for floor/door number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-additionalLocator').empty() or $this.hasValue())}</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -384,7 +388,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -833,10 +837,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1277,13 +1281,13 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1294,10 +1298,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1308,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1320,13 +1324,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1377,13 +1381,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1395,7 +1399,7 @@
         <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>74</v>
@@ -1406,14 +1410,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1432,16 +1436,16 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1479,19 +1483,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1503,13 +1507,13 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>74</v>
@@ -1520,10 +1524,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1534,31 +1538,31 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -1571,7 +1575,7 @@
         <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>74</v>
@@ -1583,13 +1587,13 @@
         <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>74</v>
@@ -1607,28 +1611,28 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>74</v>
@@ -1636,10 +1640,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1650,7 +1654,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1659,19 +1663,19 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1685,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>74</v>
@@ -1697,13 +1701,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1721,39 +1725,39 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1764,7 +1768,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1773,22 +1777,22 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>74</v>
@@ -1801,7 +1805,7 @@
         <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U7" t="s" s="2">
         <v>74</v>
@@ -1837,39 +1841,39 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1889,16 +1893,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1913,7 +1917,7 @@
         <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>74</v>
@@ -1949,7 +1953,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1961,27 +1965,27 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1992,7 +1996,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2004,13 +2008,13 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2061,13 +2065,13 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>74</v>
@@ -2090,10 +2094,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2116,13 +2120,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2161,17 +2165,17 @@
         <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2183,7 +2187,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2200,13 +2204,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>74</v>
@@ -2216,7 +2220,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2228,13 +2232,13 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2285,7 +2289,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2297,13 +2301,13 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2314,13 +2318,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
@@ -2330,7 +2334,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2342,13 +2346,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2399,7 +2403,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2411,13 +2415,13 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -2428,13 +2432,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
@@ -2444,7 +2448,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2456,13 +2460,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2513,7 +2517,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2525,13 +2529,13 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -2542,13 +2546,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>74</v>
@@ -2558,7 +2562,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2570,13 +2574,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2627,7 +2631,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2639,7 +2643,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -2656,10 +2660,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2670,7 +2674,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2682,13 +2686,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2712,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>74</v>
@@ -2739,13 +2743,13 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
@@ -2768,21 +2772,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2791,16 +2795,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2815,7 +2819,7 @@
         <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>74</v>
@@ -2851,43 +2855,43 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2903,19 +2907,19 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2929,7 +2933,7 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -2965,25 +2969,25 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -2994,21 +2998,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3017,16 +3021,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3077,50 +3081,50 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3129,16 +3133,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3153,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>74</v>
@@ -3189,39 +3193,39 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3232,7 +3236,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3241,19 +3245,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3303,39 +3307,39 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3355,20 +3359,20 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3381,7 +3385,7 @@
         <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>74</v>
@@ -3417,28 +3421,28 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T20:00:03+00:00</t>
+    <t>2023-12-21T16:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T16:09:23+00:00</t>
+    <t>2024-02-07T16:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:56:02+00:00</t>
+    <t>2024-02-10T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:16:02+00:00</t>
+    <t>2024-02-10T19:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:21:32+00:00</t>
+    <t>2024-02-16T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="228">
   <si>
     <t>Property</t>
   </si>
@@ -57,10 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:06:45+00:00</t>
+    <t>2024-02-19T12:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7® Austria, TC FHIR®</t>
   </si>
   <si>
     <t>Contact</t>
@@ -849,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -925,29 +928,33 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -959,48 +966,54 @@
       <c r="A14" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B19" t="s" s="2">
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1062,2390 +1075,2390 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="229">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T12:19:47+00:00</t>
+    <t>2024-05-06T15:57:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7® Austria, TC FHIR® (https://hl7.at/technische-komitees/tc-fhir/)</t>
+  </si>
+  <si>
+    <t>Technical Committee for FHIR® at HL7® Austria (mailto:tc-fhir@hl7.at)</t>
   </si>
   <si>
     <t>Description</t>
@@ -945,75 +948,75 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1075,2390 +1078,2390 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:57:30+00:00</t>
+    <t>2024-05-06T16:08:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T16:08:20+00:00</t>
+    <t>2024-06-05T13:01:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T13:01:07+00:00</t>
+    <t>2024-07-12T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>Technical Committee for FHIR® at HL7® Austria (mailto:tc-fhir@hl7.at)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -241,9 +247,6 @@
   </si>
   <si>
     <t>Mapping: vCard Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -855,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -963,21 +966,21 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -1017,6 +1020,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1078,2390 +1089,2390 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T08:42:46+00:00</t>
+    <t>2024-07-17T07:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:47:16+00:00</t>
+    <t>2024-10-16T10:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,7 +265,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -397,7 +397,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T10:06:48+00:00</t>
+    <t>2024-10-22T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T13:21:16+00:00</t>
+    <t>2024-10-22T15:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T15:01:33+00:00</t>
+    <t>2024-10-22T15:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
